--- a/LOGS/d1caeb8e-dbd5-4dab-b335-0a085cbc78d0/main_page_service_output/main_pages.xlsx
+++ b/LOGS/d1caeb8e-dbd5-4dab-b335-0a085cbc78d0/main_page_service_output/main_pages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="83">
   <si>
     <t>Particulars</t>
   </si>
@@ -28,12 +28,6 @@
   </si>
   <si>
     <t>statement_sub_section</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>Current assets</t>
   </si>
   <si>
     <t>Cash and cash equivalents</t>
@@ -628,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -659,16 +653,16 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4146312</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6777556</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -676,116 +670,101 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5569621</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5577196</v>
       </c>
       <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
         <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
       <c r="C4">
-        <v>4146312</v>
+        <v>10643831</v>
       </c>
       <c r="D4">
-        <v>6777556</v>
+        <v>10250443</v>
       </c>
       <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
       <c r="C5">
-        <v>5569621</v>
+        <v>50000</v>
       </c>
       <c r="D5">
-        <v>5577196</v>
+        <v>73100</v>
       </c>
       <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
       <c r="C6">
-        <v>10643831</v>
+        <v>12262</v>
       </c>
       <c r="D6">
-        <v>10250443</v>
+        <v>832</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
       <c r="C7">
-        <v>50000</v>
+        <v>651263</v>
       </c>
       <c r="D7">
-        <v>73100</v>
+        <v>614196</v>
       </c>
       <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
       <c r="C8">
-        <v>12262</v>
+        <v>21073289</v>
       </c>
       <c r="D8">
-        <v>832</v>
+        <v>23293323</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -793,16 +772,16 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>651263</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>614196</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -810,16 +789,16 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>21073289</v>
+        <v>37229968</v>
       </c>
       <c r="D10">
-        <v>23293323</v>
+        <v>29568424</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -827,96 +806,84 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>132960</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
       <c r="C12">
-        <v>37229968</v>
+        <v>55297</v>
       </c>
       <c r="D12">
-        <v>29568424</v>
+        <v>62136</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>20</v>
-      </c>
       <c r="C13">
-        <v>132960</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1816616</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>14</v>
-      </c>
       <c r="C14">
-        <v>55297</v>
+        <v>37418225</v>
       </c>
       <c r="D14">
-        <v>62136</v>
+        <v>31447176</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
       <c r="C15">
-        <v>0</v>
+        <v>58491514</v>
       </c>
       <c r="D15">
-        <v>1816616</v>
+        <v>54740499</v>
       </c>
       <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -924,16 +891,16 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>37418225</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>31447176</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -941,16 +908,16 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>58491514</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>54740499</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
         <v>35</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -958,16 +925,16 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>945651</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -975,113 +942,98 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5555273</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>5719767</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
       <c r="C20">
-        <v>945651</v>
+        <v>60331</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
       <c r="C21">
-        <v>5555273</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>5719767</v>
+        <v>682670</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>19757400</v>
+      </c>
+      <c r="D22">
+        <v>12339500</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>60331</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23">
-        <v>16</v>
-      </c>
       <c r="C23">
-        <v>0</v>
+        <v>26318655</v>
       </c>
       <c r="D23">
-        <v>682670</v>
+        <v>18741937</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
       <c r="C24">
-        <v>19757400</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>12339500</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
         <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1089,73 +1041,67 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>26318655</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>18741937</v>
+        <v>17398</v>
       </c>
       <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
         <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>72629</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>72629</v>
       </c>
       <c r="D27">
         <v>17398</v>
       </c>
       <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
         <v>36</v>
-      </c>
-      <c r="F27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>72629</v>
+        <v>26391284</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>18759335</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1163,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>72629</v>
+        <v>32100230</v>
       </c>
       <c r="D29">
-        <v>17398</v>
+        <v>35981164</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1180,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>26391284</v>
+        <v>34977001</v>
       </c>
       <c r="D30">
-        <v>18759335</v>
+        <v>34977001</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1197,84 +1143,47 @@
         <v>31</v>
       </c>
       <c r="C31">
+        <v>-2876771</v>
+      </c>
+      <c r="D31">
+        <v>1004163</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32">
         <v>32100230</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>35981164</v>
       </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>17</v>
-      </c>
-      <c r="C32">
-        <v>34977001</v>
-      </c>
-      <c r="D32">
-        <v>34977001</v>
-      </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33">
-        <v>-2876771</v>
+        <v>32100230</v>
       </c>
       <c r="D33">
-        <v>1004163</v>
+        <v>35981164</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="C34">
-        <v>32100230</v>
-      </c>
-      <c r="D34">
-        <v>35981164</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35">
-        <v>32100230</v>
-      </c>
-      <c r="D35">
-        <v>35981164</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1193,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1305,219 +1214,189 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>36697978</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>32596412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
       <c r="C3">
-        <v>110472</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>116015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>36697978</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>32596412</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>-13623837</v>
+        <v>110472</v>
       </c>
       <c r="D5">
-        <v>-14337989</v>
+        <v>116015</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>-7044141</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-6270754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>121420</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>-1619575</v>
+        <v>-13623837</v>
       </c>
       <c r="D7">
-        <v>-1298515</v>
+        <v>-14337989</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8">
-        <v>-16552679</v>
+        <v>-7044141</v>
       </c>
       <c r="D8">
-        <v>-15177596</v>
+        <v>-6270754</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>-38840232</v>
+        <v>-1619575</v>
       </c>
       <c r="D9">
-        <v>-37084854</v>
+        <v>-1298515</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>-54972</v>
+        <v>-16552679</v>
       </c>
       <c r="D10">
-        <v>-66162</v>
+        <v>-15177596</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>20355</v>
+        <v>-38840232</v>
       </c>
       <c r="D11">
-        <v>546</v>
+        <v>-37084854</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>-34617</v>
+        <v>-54972</v>
       </c>
       <c r="D12">
-        <v>-65616</v>
+        <v>-66162</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>-2066399</v>
+        <v>20355</v>
       </c>
       <c r="D13">
-        <v>-4438043</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>-1814535</v>
+        <v>-34617</v>
       </c>
       <c r="D14">
-        <v>1246265</v>
+        <v>-65616</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>-3880934</v>
+        <v>-2066399</v>
       </c>
       <c r="D15">
-        <v>-3191778</v>
+        <v>-4438043</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-1814535</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1246265</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-3880934</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-3191778</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>-3880934</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-3191778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1528,7 +1407,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>-3880934</v>
@@ -1538,10 +1417,32 @@
       </c>
     </row>
     <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
         <v>-3880934</v>
       </c>
-      <c r="D21">
+      <c r="D22">
+        <v>-3191778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23">
+        <v>-3880934</v>
+      </c>
+      <c r="D23">
         <v>-3191778</v>
       </c>
     </row>
@@ -1577,7 +1478,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1586,12 +1487,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>36688863</v>
@@ -1600,12 +1501,12 @@
         <v>33393559</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>-38541780</v>
@@ -1614,12 +1515,12 @@
         <v>-36686219</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5">
         <v>-1852917</v>
@@ -1628,12 +1529,12 @@
         <v>-3292660</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>24078</v>
@@ -1642,12 +1543,12 @@
         <v>546</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>-2135</v>
@@ -1656,12 +1557,12 @@
         <v>572098</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>-1830974</v>
@@ -1670,12 +1571,12 @@
         <v>-2720016</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1684,12 +1585,12 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>-9274278</v>
@@ -1698,12 +1599,12 @@
         <v>-9608518</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1712,12 +1613,12 @@
         <v>56860</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1726,12 +1627,12 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>-9274278</v>
@@ -1740,12 +1641,12 @@
         <v>-9551658</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1754,12 +1655,12 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1768,12 +1669,12 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>-54973</v>
@@ -1782,12 +1683,12 @@
         <v>-66162</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>7472858</v>
@@ -1796,12 +1697,12 @@
         <v>12367193</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>7417885</v>
@@ -1810,12 +1711,12 @@
         <v>12301031</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19">
         <v>-3687367</v>
@@ -1824,12 +1725,12 @@
         <v>29357</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>6777556</v>
@@ -1838,12 +1739,12 @@
         <v>6598016</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B21">
         <v>110472</v>
@@ -1852,12 +1753,12 @@
         <v>150183</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22">
         <v>3200661</v>
@@ -1866,12 +1767,12 @@
         <v>6777556</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1880,12 +1781,12 @@
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>4146312</v>
@@ -1894,12 +1795,12 @@
         <v>3782279</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1908,12 +1809,12 @@
         <v>2995277</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1922,7 +1823,7 @@
         <v>6777556</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
